--- a/microservices/download templates/src/templatesStorage/basicLineTemplate.xlsx
+++ b/microservices/download templates/src/templatesStorage/basicLineTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DORA\Documents\GitHub\SaaS23-60\microservices\download templates\src\templatesStorage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65CD5B7-6685-4377-A9E2-EB05071D7EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B37FDC8-243E-404D-A531-B58883B2C1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46EB44D5-4E4C-4FBF-9B9B-9B8682C03FE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Chart's Title</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>basicLine</t>
+  </si>
+  <si>
+    <t>ChartName</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -156,12 +159,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -481,7 +478,7 @@
   <dimension ref="A1:BY462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +507,10 @@
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -530,7 +530,7 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -36722,7 +36722,7 @@
       <c r="BY462" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RWUTczNSjstO8somqsHJ3vncpKhEaVMAUfsjG84eJkaAE1mHEKVLYMBKr7EWTG7Enmb8B8T6W4BMQbEL1/JQNg==" saltValue="bHFhE0yTVvHmbwZgq5iWig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q2mQIIJoLWK/SdfzuCyCajvYNWnOzBLM34+x0aWAlmsEdUEXx5ko7oYzuP9UAHnNTZ9XmYFIg3sP/yGdx51r3Q==" saltValue="anHJdqZWWx/66haQ+k6SHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="grJ6j9Pg3fR0ozyFbWId1iGPDl+m/wcgohlsBFVdFPlu3vLW2Q2diNvdtQZ4Y/z885xl+QQPzwXqYSHB89EeWw==" saltValue="Iwv+UuEJEwdeanhrSECMnw==" spinCount="100000" sqref="A1:XFD2" name="Range1"/>
   </protectedRanges>
